--- a/classfiers/chain/svm/smote/chain-svm-sigmoid-smote-results.xlsx
+++ b/classfiers/chain/svm/smote/chain-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.959731543624161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7161572052401747</v>
+        <v>0.6217391304347826</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5888689407540395</v>
+        <v>0.754617414248021</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3287450161382192</v>
+        <v>0.9760022586109544</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.7423312883435583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6462882096069869</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5638095238095238</v>
+        <v>0.6142131979695432</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3650275299031707</v>
+        <v>0.8659702616224355</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5574468085106383</v>
+        <v>0.7040816326530612</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5695652173913044</v>
+        <v>0.6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5634408602150538</v>
+        <v>0.6478873239436621</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4581545471805582</v>
+        <v>0.8643289224952742</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5539906103286385</v>
+        <v>0.5529801324503312</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5130434782608696</v>
+        <v>0.7260869565217392</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5327313769751693</v>
+        <v>0.6278195488721805</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5299031706853997</v>
+        <v>0.7605671077504726</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5560344827586207</v>
+        <v>0.4562841530054645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5633187772925764</v>
+        <v>0.7260869565217392</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5596529284164858</v>
+        <v>0.5604026845637584</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4544535764001449</v>
+        <v>0.6129300567107749</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5334943803195794</v>
+        <v>0.6830817500153152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6016745775583824</v>
+        <v>0.639544513457557</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5617007260340544</v>
+        <v>0.640988033919433</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4272567680614985</v>
+        <v>0.8159597214379823</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/svm/smote/chain-svm-sigmoid-smote-results.xlsx
+++ b/classfiers/chain/svm/smote/chain-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.959731543624161</v>
+        <v>0.578125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6217391304347826</v>
+        <v>0.925</v>
       </c>
       <c r="D2" t="n">
-        <v>0.754617414248021</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9760022586109544</v>
+        <v>0.62205</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7423312883435583</v>
+        <v>0.8398058252427184</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.865</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6142131979695432</v>
+        <v>0.8522167487684729</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8659702616224355</v>
+        <v>0.85965</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7040816326530612</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6478873239436621</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8643289224952742</v>
+        <v>0.9798</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5529801324503312</v>
+        <v>0.84688995215311</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7260869565217392</v>
+        <v>0.885</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6278195488721805</v>
+        <v>0.8655256723716381</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7605671077504726</v>
+        <v>0.8869849246231156</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4562841530054645</v>
+        <v>0.9548022598870056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7260869565217392</v>
+        <v>0.8492462311557789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5604026845637584</v>
+        <v>0.898936170212766</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6129300567107749</v>
+        <v>0.9637688442211055</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6830817500153152</v>
+        <v>0.8404158355267424</v>
       </c>
       <c r="C7" t="n">
-        <v>0.639544513457557</v>
+        <v>0.8728492462311557</v>
       </c>
       <c r="D7" t="n">
-        <v>0.640988033919433</v>
+        <v>0.8467754860499659</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8159597214379823</v>
+        <v>0.8624507537688443</v>
       </c>
     </row>
   </sheetData>
